--- a/biology/Médecine/Ferdinand_Morel/Ferdinand_Morel.xlsx
+++ b/biology/Médecine/Ferdinand_Morel/Ferdinand_Morel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferdinand Morel, né le 26 janvier 1888 à Moutier et mort le 5 août 1957 à Giétroz, est un psychiatre suisse dont la carrière universitaire s'est déroulée à Genève.
 </t>
@@ -513,16 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines et famille
-Ferdinand Morel naît le 26 janvier 1888 à Moutier, dans le canton de Berne (Jura bernois). Il est originaire de Corgémont, dans le canton de Berne[1].
-Son père, Alexandre, est pasteur ; sa mère est née Hélène Francillon. Son grand-père paternel, Albert Morel, est conseiller national et milite pour l'autonomie du Jura bernois[1].
-Il épouse en 1920 une ressortissante française, Mathilde Dieterlen, et acquiert la bourgeoisie de Genève en 1928[1].
-Études et parcours professionnel
-Il fait des études de théologie à l'Université de Neuchâtel (baccalauréat en 1911), puis de philosophie à Paris et Genève, où il obtient un doctorat en 1918[1] avec sa thèse « Essai sur l'introversion mystique »[2]. 
-Par la suite, il donne un cours sur des «  questions de psychologie » en tant que privat-docent à la Faculté des lettres. Pour « connaître l'homme dans sa totalité »[3], il s'est inscrit pour des études de médecine à Genève en 1921. Médecin en 1927, il commence à exercer à la Clinique psychiatrique de Bel-Air en 1928. Sa thèse sur l'hyperostose frontale interne reçoit le prix de la Faculté de médecine en 1930[2]. De 1934 à 1937, Ferdinand Morel enseigne le cours « Éléments de psychiatrie » comme privat-docent.
-En 1938, il est nommé à la chaire de psychiatrie de la Faculté de médecine de l'Université de Genève et à la direction de la Clinique psychiatrique de Bel-Air, qu'il dirige jusqu'à son décès en 1957[3],[4],[5], avant l’arrivée de Julian de Ajuriaguerra.
-Il développe une vision essentiellement organiciste des maladies mentales, en s'intéressant à leurs bases physiopathologiques, anatomiques ou biochimiques[4]. Dans ce but, il crée divers laboratoires à Bel-Air, dont celui d'histopathologie, d'endocrinologie ou encore d'électro-encéphalographie, afin d'enrichir l'examen clinique[4]. Ferdinand Morel souhaite également que le lieu de vie des malades soit agréable : il fait moderniser les pavillons, fleurir le domaine, agrandir la chapelle de Bel-Air. Des excursions et des séances de théâtre ou de cinéma sont organisées pour les patients, et un service social les aide à réintégrer la vie à l'extérieur de l'institution[3]. Le développement de la Policlinique de psychiatrie permet de traiter de manière ambulatoire certaines maladies mentales.
-Au niveau des pratiques médicales, Ferdinand Morel introduit l'utilisation des neuroleptiques peu après leur invention en 1952. Il est fermement opposé à la pratique des lobotomies ou psycho-chirurgie[4],[6].
+          <t>Origines et famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferdinand Morel naît le 26 janvier 1888 à Moutier, dans le canton de Berne (Jura bernois). Il est originaire de Corgémont, dans le canton de Berne.
+Son père, Alexandre, est pasteur ; sa mère est née Hélène Francillon. Son grand-père paternel, Albert Morel, est conseiller national et milite pour l'autonomie du Jura bernois.
+Il épouse en 1920 une ressortissante française, Mathilde Dieterlen, et acquiert la bourgeoisie de Genève en 1928.
 </t>
         </is>
       </c>
@@ -548,14 +559,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Travaux</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Essai sur l'introversion mystique : étude psychologique de Pseudo-Denys l'Aréopagite et quelques autres cas de mysticisme, Genève, Kundig, 1918. 338 p. (Th. lett. Genève, 1917 ; 32)
-L'hyperostose frontale interne : syndrome de l'hyperostose frontale interne avec adipose et troubles cérébraux, Genève, Impr. Chapalay &amp; Mottier, 1929. 92 p. (Th. méd. Genève, 1929 ; Méd. 1311)
-Introduction à la Psychiatrie Neurologique, Paris, Masson &amp; Cie., 1947. 298 p.</t>
+          <t>Études et parcours professionnel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait des études de théologie à l'Université de Neuchâtel (baccalauréat en 1911), puis de philosophie à Paris et Genève, où il obtient un doctorat en 1918 avec sa thèse « Essai sur l'introversion mystique ». 
+Par la suite, il donne un cours sur des «  questions de psychologie » en tant que privat-docent à la Faculté des lettres. Pour « connaître l'homme dans sa totalité », il s'est inscrit pour des études de médecine à Genève en 1921. Médecin en 1927, il commence à exercer à la Clinique psychiatrique de Bel-Air en 1928. Sa thèse sur l'hyperostose frontale interne reçoit le prix de la Faculté de médecine en 1930. De 1934 à 1937, Ferdinand Morel enseigne le cours « Éléments de psychiatrie » comme privat-docent.
+En 1938, il est nommé à la chaire de psychiatrie de la Faculté de médecine de l'Université de Genève et à la direction de la Clinique psychiatrique de Bel-Air, qu'il dirige jusqu'à son décès en 1957 avant l’arrivée de Julian de Ajuriaguerra.
+Il développe une vision essentiellement organiciste des maladies mentales, en s'intéressant à leurs bases physiopathologiques, anatomiques ou biochimiques. Dans ce but, il crée divers laboratoires à Bel-Air, dont celui d'histopathologie, d'endocrinologie ou encore d'électro-encéphalographie, afin d'enrichir l'examen clinique. Ferdinand Morel souhaite également que le lieu de vie des malades soit agréable : il fait moderniser les pavillons, fleurir le domaine, agrandir la chapelle de Bel-Air. Des excursions et des séances de théâtre ou de cinéma sont organisées pour les patients, et un service social les aide à réintégrer la vie à l'extérieur de l'institution. Le développement de la Policlinique de psychiatrie permet de traiter de manière ambulatoire certaines maladies mentales.
+Au niveau des pratiques médicales, Ferdinand Morel introduit l'utilisation des neuroleptiques peu après leur invention en 1952. Il est fermement opposé à la pratique des lobotomies ou psycho-chirurgie,.
+</t>
         </is>
       </c>
     </row>
@@ -580,12 +600,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Essai sur l'introversion mystique : étude psychologique de Pseudo-Denys l'Aréopagite et quelques autres cas de mysticisme, Genève, Kundig, 1918. 338 p. (Th. lett. Genève, 1917 ; 32)
+L'hyperostose frontale interne : syndrome de l'hyperostose frontale interne avec adipose et troubles cérébraux, Genève, Impr. Chapalay &amp; Mottier, 1929. 92 p. (Th. méd. Genève, 1929 ; Méd. 1311)
+Introduction à la Psychiatrie Neurologique, Paris, Masson &amp; Cie., 1947. 298 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ferdinand_Morel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Morel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Ferdinand Morel est associé au syndrome Morgagni-Stewart-Morel[3],[7], qu'il a décrit dans sa thèse. Il ne doit pas être confondu avec le psychiatre français Bénédict Augustin Morel (1809-1873), lui aussi éponyme d'une autre affection psychiatrique, la maladie de Kraepelin-Morel ou démence précoce, une entité nosologique devenue obsolète[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Ferdinand Morel est associé au syndrome Morgagni-Stewart-Morel qu'il a décrit dans sa thèse. Il ne doit pas être confondu avec le psychiatre français Bénédict Augustin Morel (1809-1873), lui aussi éponyme d'une autre affection psychiatrique, la maladie de Kraepelin-Morel ou démence précoce, une entité nosologique devenue obsolète.
 </t>
         </is>
       </c>
